--- a/2024 Game Day Info/Week 7_ DC @ PORT (Sat)/Game Day Packet - Portland vs DC 5_18_24.xlsx
+++ b/2024 Game Day Info/Week 7_ DC @ PORT (Sat)/Game Day Packet - Portland vs DC 5_18_24.xlsx
@@ -16,8 +16,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A6">
+      <text>
+        <t xml:space="preserve">Instagram roster post differs from Active roster below - which one is correct for announcer's sake?
+	-Portland Rising</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="424">
   <si>
     <t>Team leaders must effectively communicate with other team leaders regarding travel plans and game times prior to and on game days.</t>
   </si>
@@ -1649,6 +1665,12 @@
   </si>
   <si>
     <t>Did soccer and ballet for 10 years before college</t>
+  </si>
+  <si>
+    <t>Molly Roy</t>
+  </si>
+  <si>
+    <t>Roy rhymes with Toy</t>
   </si>
   <si>
     <t>Jackie Wang</t>
@@ -1904,7 +1926,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2191,6 +2213,12 @@
     <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -2202,9 +2230,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -12327,21 +12352,21 @@
       <c r="M34" s="78"/>
     </row>
     <row r="35">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="96" t="s">
         <v>417</v>
       </c>
       <c r="B35" s="75"/>
-      <c r="C35" s="75" t="s">
-        <v>417</v>
-      </c>
-      <c r="D35" s="76" t="s">
-        <v>342</v>
-      </c>
-      <c r="E35" s="76">
-        <v>66.0</v>
-      </c>
-      <c r="F35" s="76" t="s">
-        <v>343</v>
+      <c r="C35" s="97" t="s">
+        <v>418</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="77">
+        <v>55.0</v>
+      </c>
+      <c r="F35" s="77" t="s">
+        <v>309</v>
       </c>
       <c r="G35" s="75"/>
       <c r="H35" s="75"/>
@@ -12352,103 +12377,128 @@
       <c r="M35" s="78"/>
     </row>
     <row r="36">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
+      <c r="A36" s="74" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>342</v>
+      </c>
+      <c r="E36" s="76">
+        <v>66.0</v>
+      </c>
+      <c r="F36" s="76" t="s">
+        <v>343</v>
+      </c>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
     </row>
     <row r="37">
-      <c r="A37" s="99" t="s">
-        <v>418</v>
-      </c>
-      <c r="B37" s="98"/>
-      <c r="C37" s="100" t="s">
-        <v>419</v>
-      </c>
-      <c r="D37" s="101" t="s">
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="101" t="s">
+        <v>420</v>
+      </c>
+      <c r="B38" s="100"/>
+      <c r="C38" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="D38" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="101" t="s">
+      <c r="E38" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="99" t="s">
-        <v>420</v>
-      </c>
-      <c r="B38" s="97"/>
-      <c r="C38" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="D38" s="101" t="s">
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="101" t="s">
+        <v>422</v>
+      </c>
+      <c r="B39" s="99"/>
+      <c r="C39" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="D39" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="101" t="s">
+      <c r="E39" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="97"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="99" t="s">
-        <v>421</v>
-      </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="75" t="s">
-        <v>421</v>
-      </c>
-      <c r="D39" s="101" t="s">
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="101" t="s">
+        <v>423</v>
+      </c>
+      <c r="B40" s="99"/>
+      <c r="C40" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="E39" s="101" t="s">
+      <c r="E40" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="96"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="97"/>
-      <c r="M40" s="97"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="98"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12459,6 +12509,7 @@
       <formula1>"Atlanta,Austin,Columbus,DC,Indianapolis,Minnesota,Milwaukee,Nashville,New York,Philadelphia,Portland,Raleigh"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>